--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,12 +247,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29586909395472255</v>
+        <v>0.29582471055420528</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29615583230315956</v>
+        <v>0.29611163418938269</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00094152246894235194</v>
+        <v>0.00094385170027047464</v>
       </c>
       <c r="E3" s="0">
-        <v>1.2422588522830513e-05</v>
+        <v>1.2604605672936883e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-2.6418226698877542e-05</v>
+        <v>-2.6605782403536365e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00016729357319849236</v>
+        <v>-0.00016735052225396214</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.0426928501037733e-06</v>
+        <v>-1.0299678870835377e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00058131219344647711</v>
+        <v>-0.00058340629621847116</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00010885997716575391</v>
+        <v>0.00010885989799702678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28496702420508219</v>
+        <v>0.28373080472794981</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0098717946945259243</v>
+        <v>-0.011085349261032563</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.2818528317940838e-05</v>
+        <v>-3.275447347262766e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-4.2068483484007446e-08</v>
+        <v>5.0100608448572638e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.1438105345618455e-05</v>
+        <v>-1.0834873242485248e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0020686940822337158</v>
+        <v>-0.0020566461662239431</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00084654302675894332</v>
+        <v>0.00085480780886082268</v>
       </c>
       <c r="K4" s="0">
-        <v>-5.0563645929646572e-05</v>
+        <v>-5.0553502406569528e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28940897996517134</v>
+        <v>0.28947436878975819</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0090213580849072567</v>
+        <v>0.010254636325539686</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0012602460871795893</v>
+        <v>0.0013323996584479374</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00046477322038195604</v>
+        <v>-0.00046684675408094583</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00027769541336663026</v>
+        <v>-0.00027905171241852993</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0046753027256209922</v>
+        <v>-0.0046758603353293923</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00010615775584909801</v>
+        <v>-0.00010637500542164646</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.9676238264216598e-05</v>
+        <v>-8.9292469806835401e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00022604305851481321</v>
+        <v>-0.00022604564512190839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.47747713726504415</v>
+        <v>0.47736865043376087</v>
       </c>
       <c r="C6" s="0">
-        <v>0.21508358432906721</v>
+        <v>0.21508514223227906</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00060448428511182875</v>
+        <v>0.00060460097928950426</v>
       </c>
       <c r="F6" s="0">
-        <v>3.1971109489419527e-05</v>
+        <v>3.2128137756242341e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00036641401733527679</v>
+        <v>-0.00037045638209440675</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.031056927213676196</v>
+        <v>-0.031228579107887695</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.003771458807215855</v>
+        <v>0.003771445784659988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46529526270721222</v>
+        <v>0.46521019738093039</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.030749458503756655</v>
+        <v>-0.030745811586871844</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0012693767314682202</v>
+        <v>-0.001270196775723821</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0050839565820425623</v>
+        <v>-0.0050944160501147709</v>
       </c>
       <c r="G7" s="0">
-        <v>0.023329763671641735</v>
+        <v>0.023363815847833643</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0019968265786134811</v>
+        <v>0.0019938287587492353</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00040567299081972763</v>
+        <v>-0.00040567324670293115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13195310670984342</v>
+        <v>0.13507050165897355</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.3336369646291753</v>
+        <v>-0.33065893061262558</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.0004052417440891207</v>
+        <v>-0.00040562550247949178</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0067286187813974099</v>
+        <v>-0.0067309152813595022</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00039090910637619897</v>
+        <v>0.00038943555045950473</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0045615977632443121</v>
+        <v>0.004790199569762954</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0024761622876725564</v>
+        <v>0.0024761405542852444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.10187160862706063</v>
+        <v>-0.099298831436153312</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.036898910540010911</v>
+        <v>-0.037204726125556538</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.027937862789034543</v>
+        <v>-0.027967263323098592</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.17364371095086401</v>
+        <v>-0.17375710225479618</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0077632453925336568</v>
+        <v>0.0076654367780558431</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0057028736380706022</v>
+        <v>-0.0057040009342530732</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0022494006258898117</v>
+        <v>0.0022523177579940067</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00034599656265255074</v>
+        <v>0.00034600500652764987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19996717249731194</v>
+        <v>0.20945158603866781</v>
       </c>
       <c r="C10" s="0">
-        <v>0.29999219853615178</v>
+        <v>0.30724144800612396</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0013430388463996452</v>
+        <v>-0.0013429917906939192</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0011121186497687285</v>
+        <v>0.0011056104287888589</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0011004154459118634</v>
+        <v>-0.0011002900973423857</v>
       </c>
       <c r="I10" s="0">
-        <v>0.02524802967336514</v>
+        <v>0.025029839058208436</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.018892729908709022</v>
+        <v>-0.019005804488106137</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0031773815338925204</v>
+        <v>-0.0031773936421577442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.43258709191760814</v>
+        <v>0.44004877102480283</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.051870298273018839</v>
+        <v>0.050749500380081546</v>
       </c>
       <c r="E11" s="0">
-        <v>0.024227006789249207</v>
+        <v>0.024037652493940492</v>
       </c>
       <c r="F11" s="0">
-        <v>0.17989245027788206</v>
+        <v>0.17907134085366511</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0098690734226231681</v>
+        <v>0.0099036637743366435</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00059694609969931662</v>
+        <v>0.00055865197186969872</v>
       </c>
       <c r="I11" s="0">
-        <v>0.014904737140303399</v>
+        <v>0.015016943068166914</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.048740592582479814</v>
+        <v>-0.048740567555925374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.43186519303654303</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.072200316379180479</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00048622990055180828</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.0002491055089423349</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00020677182640028372</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.060604038008273187</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.019335960141157349</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,11 +388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="14.24609375" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29582471055420528</v>
+        <v>0.29580025510311836</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29611163418938269</v>
+        <v>0.29608762548355344</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00094385170027047464</v>
+        <v>0.00094827805020152435</v>
       </c>
       <c r="E3" s="0">
-        <v>1.2604605672936883e-05</v>
+        <v>1.2529634682888561e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-2.6605782403536365e-05</v>
+        <v>-2.643510065493712e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00016735052225396214</v>
+        <v>-0.00016747489528314081</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.0299678870835377e-06</v>
+        <v>-1.0289217377908319e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00058340629621847116</v>
+        <v>-0.00058735823927268344</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00010885989799702678</v>
+        <v>0.00010885985249919905</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28373080472794981</v>
+        <v>0.28279975815002412</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.011085349261032563</v>
+        <v>-0.01203375224433628</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.275447347262766e-05</v>
+        <v>-3.2756731646108291e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>5.0100608448572638e-07</v>
+        <v>4.8729454565944944e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.0834873242485248e-05</v>
+        <v>-1.0328080432509755e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0020566461662239431</v>
+        <v>-0.0020445521851363102</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00085480780886082268</v>
+        <v>0.00088357651866129258</v>
       </c>
       <c r="K4" s="0">
-        <v>-5.0553502406569528e-05</v>
+        <v>-5.0541905185053082e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28947436878975819</v>
+        <v>0.28876635879571161</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010254636325539686</v>
+        <v>0.010444128582859338</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0013323996584479374</v>
+        <v>0.0013807026992330787</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00046684675408094583</v>
+        <v>-0.00046826284282636447</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00027905171241852993</v>
+        <v>-0.00028004744637920574</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0046758603353293923</v>
+        <v>-0.0046885668977562816</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00010637500542164646</v>
+        <v>-0.00010649881557235738</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.9292469806835401e-05</v>
+        <v>-8.8805844021178104e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00022604564512190839</v>
+        <v>-0.00022604878984955334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.47736865043376087</v>
+        <v>0.47823180529774789</v>
       </c>
       <c r="C6" s="0">
-        <v>0.21508514223227906</v>
+        <v>0.21664093592958955</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00060460097928950426</v>
+        <v>0.00060470155339668321</v>
       </c>
       <c r="F6" s="0">
-        <v>3.2128137756242341e-05</v>
+        <v>3.2115562115258786e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00037045638209440675</v>
+        <v>-0.00036654940190644088</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.031228579107887695</v>
+        <v>-0.031217202984683369</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.003771445784659988</v>
+        <v>0.0037714458435245679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46521019738093039</v>
+        <v>0.46636173546840609</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.030745811586871844</v>
+        <v>-0.030656062377991487</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.001270196775723821</v>
+        <v>-0.0012680649953305651</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0050944160501147709</v>
+        <v>-0.0049777661906848713</v>
       </c>
       <c r="G7" s="0">
-        <v>0.023363815847833643</v>
+        <v>0.023443252848190425</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0019938287587492353</v>
+        <v>0.0019942451181216105</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00040567324670293115</v>
+        <v>-0.00040567423164689087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.13507050165897355</v>
+        <v>0.12358704325094208</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.33065893061262558</v>
+        <v>-0.34376105801577711</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00040562550247949178</v>
+        <v>-0.00040635191361748993</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0067309152813595022</v>
+        <v>-0.0067428619831046447</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00038943555045950473</v>
+        <v>0.00038844908178283346</v>
       </c>
       <c r="I8" s="0">
-        <v>0.004790199569762954</v>
+        <v>0.0052709727906062433</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0024761405542852444</v>
+        <v>0.0024761578226462078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.099298831436153312</v>
+        <v>-0.11061241025300711</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.037204726125556538</v>
+        <v>-0.036676530302322624</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.027967263323098592</v>
+        <v>-0.028080811399514495</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.17375710225479618</v>
+        <v>-0.174182808989715</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0076654367780558431</v>
+        <v>0.0078519628732987325</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0057040009342530732</v>
+        <v>-0.0057180778088933145</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0022523177579940067</v>
+        <v>0.0022608230814629071</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00034600500652764987</v>
+        <v>0.00034598904173460676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.20945158603866781</v>
+        <v>0.19696234028507337</v>
       </c>
       <c r="C10" s="0">
-        <v>0.30724144800612396</v>
+        <v>0.30516311137750163</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0013429917906939192</v>
+        <v>-0.0013424204378597506</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0011056104287888589</v>
+        <v>0.0011385076529474695</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0011002900973423857</v>
+        <v>-0.0010995954098378612</v>
       </c>
       <c r="I10" s="0">
-        <v>0.025029839058208436</v>
+        <v>0.025359920974729326</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.019005804488106137</v>
+        <v>-0.018467376871353001</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0031773936421577442</v>
+        <v>-0.0031773967480473453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.44004877102480283</v>
+        <v>0.43589814513540326</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.050749500380081546</v>
+        <v>0.053852540192274215</v>
       </c>
       <c r="E11" s="0">
-        <v>0.024037652493940492</v>
+        <v>0.024869998845095474</v>
       </c>
       <c r="F11" s="0">
-        <v>0.17907134085366511</v>
+        <v>0.18262221332673975</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0099036637743366435</v>
+        <v>0.010086674510302693</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00055865197186969872</v>
+        <v>0.00071275664219254365</v>
       </c>
       <c r="I11" s="0">
-        <v>0.015016943068166914</v>
+        <v>0.015532262471252788</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.048740567555925374</v>
+        <v>-0.048740641137527574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.43186519303654303</v>
+        <v>0.32206172988072596</v>
       </c>
       <c r="C12" s="0">
-        <v>0.072200316379180479</v>
+        <v>0.044589682373822312</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00048622990055180828</v>
+        <v>-0.00057548592808038255</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0002491055089423349</v>
+        <v>-0.011119569298829127</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00020677182640028372</v>
+        <v>-0.0069915550166613823</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.060604038008273187</v>
+        <v>-0.12066590300549321</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.019335960141157349</v>
+        <v>-0.019073584379435515</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.36374115471819951</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.076384609806221304</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.10363879005093336</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.001711648646957188</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.004999850721364758</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0039231409628355182</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0011966409606397888</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.21987124484556048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.1990118471285342</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.11218421187788329</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00032946351033713805</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00043043827739938721</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00020552024282924317</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.051434853863969655</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00014481981724662196</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29580025510311836</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29608762548355344</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28279975815002412</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28876635879571161</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.47823180529774789</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.46636173546840609</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.12358704325094208</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.11061241025300711</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.19696234028507337</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.43589814513540326</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.32206172988072596</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.36374115471819951</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.1990118471285342</v>
+        <v>0.21581551516717462</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.11218421187788329</v>
+        <v>-0.087004381910745734</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00032946351033713805</v>
+        <v>-0.00030402477050862133</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00043043827739938721</v>
+        <v>-0.0024421481099146125</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00020552024282924317</v>
+        <v>-0.008600271753439739</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.051434853863969655</v>
+        <v>-0.049452741625547317</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00014481981724662196</v>
+        <v>-0.00012207138086889335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.35090718982243946</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35459234220061697</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.026547077402500879</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.05427215508414613</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0079148892327234634</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.13922601953507358</v>
       </c>
     </row>
   </sheetData>
